--- a/similarities/split_global/harmonic_similarity_timestamps_349.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_349.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,234 +484,244 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['D:7', 'G:min', 'D:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['G#:7', 'C#:min', 'G#:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:25.160000', '0:01:34.900000')]</t>
+          <t>('0:00:42.290000', '0:00:47.770000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:33', '0:01:43.280000')]</t>
+          <t>('0:00:25.734081', '0:00:32.897437')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=85.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=42.29</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=93.0']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=25.734081</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min'], ['C', 'Bb/5', 'F']]</t>
+          <t>['E:7', 'A:7', 'D:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Ab/7', 'F:min'], ['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.300272', '0:00:18.887755'), ('0:00:31.217551', '0:00:34.874693')]</t>
+          <t>('0:00:23.810000', '0:00:28.450000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:55.697000', '0:01:00.759000'), ('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:19.220000', '0:00:25.320000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=15.300272', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=31.217551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=55.697', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=19.22</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:dim7', 'A:min7', 'D:7']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Gb:dim7', 'F:min7', 'Bb:7']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.630000', '0:00:14.530000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:35.170000', '0:00:37.550000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=11.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=35.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:13.320000', '0:01:26.060000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=73.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=59.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -720,486 +730,492 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.420000', '0:00:07.080000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.38']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['Eb:maj', 'Db:maj', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['E/5', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:00:45.887000', '0:00:51.649000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:09.654263', '0:00:15.668231')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=9.654263</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:24.615000', '0:04:33.028000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['Ab:7', 'Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Gb:7', 'Cb', 'Gb:7', 'Cb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:01:00.080000', '0:01:07.990000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:45.522000', '0:00:50.551000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=60.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=45.522</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:17.500000'), ('0:00:40.380000', '0:00:42.280000'), ('0:01:28.480000', '0:01:40.380000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:00:26.960000', '0:00:33.500000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+          <t>('0:00:22.060000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.500000', '0:00:41.660000')]</t>
+          <t>('0:00:31.340000', '0:00:41.920000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000')]</t>
+          <t>('0:01:45.220000', '0:02:02.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=31.34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=105.22</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:37.740000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:01:36.241000', '0:01:41.882000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
